--- a/Code/Results/Cases/Case_4_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9977951135582351</v>
+        <v>1.027209544566925</v>
       </c>
       <c r="D2">
-        <v>1.02089689789766</v>
+        <v>1.036216243793162</v>
       </c>
       <c r="E2">
-        <v>1.0059856146402</v>
+        <v>1.030840397174019</v>
       </c>
       <c r="F2">
-        <v>1.02514414412023</v>
+        <v>1.045018289888686</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04818590193139</v>
+        <v>1.035126635783653</v>
       </c>
       <c r="J2">
-        <v>1.020041972992474</v>
+        <v>1.03236868986662</v>
       </c>
       <c r="K2">
-        <v>1.03207258432933</v>
+        <v>1.039010620174424</v>
       </c>
       <c r="L2">
-        <v>1.017362185471256</v>
+        <v>1.0336502439994</v>
       </c>
       <c r="M2">
-        <v>1.036263951950365</v>
+        <v>1.047787708967846</v>
       </c>
       <c r="N2">
-        <v>1.010601416845077</v>
+        <v>1.01480623656739</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002116799246255</v>
+        <v>1.028123558461283</v>
       </c>
       <c r="D3">
-        <v>1.024114194430126</v>
+        <v>1.036907023967284</v>
       </c>
       <c r="E3">
-        <v>1.009800473759423</v>
+        <v>1.031701872351562</v>
       </c>
       <c r="F3">
-        <v>1.028908532550315</v>
+        <v>1.045848965104229</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049408680566304</v>
+        <v>1.035301004861554</v>
       </c>
       <c r="J3">
-        <v>1.022549924047459</v>
+        <v>1.032922973981904</v>
       </c>
       <c r="K3">
-        <v>1.034447553704286</v>
+        <v>1.039511271360815</v>
       </c>
       <c r="L3">
-        <v>1.020309472848106</v>
+        <v>1.034320015724604</v>
       </c>
       <c r="M3">
-        <v>1.039184416682742</v>
+        <v>1.048429689325349</v>
       </c>
       <c r="N3">
-        <v>1.011441413244968</v>
+        <v>1.01499076227881</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004857453071299</v>
+        <v>1.028715397392193</v>
       </c>
       <c r="D4">
-        <v>1.026155153683119</v>
+        <v>1.037354013199708</v>
       </c>
       <c r="E4">
-        <v>1.012225224778944</v>
+        <v>1.032260065816473</v>
       </c>
       <c r="F4">
-        <v>1.031298427166418</v>
+        <v>1.046386795153065</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050170220033131</v>
+        <v>1.035412178216846</v>
       </c>
       <c r="J4">
-        <v>1.024137715613144</v>
+        <v>1.033281429701414</v>
       </c>
       <c r="K4">
-        <v>1.035947833654222</v>
+        <v>1.039834558552646</v>
       </c>
       <c r="L4">
-        <v>1.022178307705594</v>
+        <v>1.034753525362923</v>
       </c>
       <c r="M4">
-        <v>1.041033231110608</v>
+        <v>1.04884477341377</v>
       </c>
       <c r="N4">
-        <v>1.011973087621634</v>
+        <v>1.01511005615366</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005996726805931</v>
+        <v>1.0289643036803</v>
       </c>
       <c r="D5">
-        <v>1.02700367230701</v>
+        <v>1.037541927871446</v>
       </c>
       <c r="E5">
-        <v>1.013234466047695</v>
+        <v>1.032494911152504</v>
       </c>
       <c r="F5">
-        <v>1.032292478358814</v>
+        <v>1.046612975677337</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05048340021158</v>
+        <v>1.035458518486731</v>
       </c>
       <c r="J5">
-        <v>1.024797080129404</v>
+        <v>1.03343207477131</v>
       </c>
       <c r="K5">
-        <v>1.036570042610152</v>
+        <v>1.039970307457184</v>
       </c>
       <c r="L5">
-        <v>1.022955082136278</v>
+        <v>1.034935800915261</v>
       </c>
       <c r="M5">
-        <v>1.041800944953418</v>
+        <v>1.049019196711796</v>
       </c>
       <c r="N5">
-        <v>1.012193843020406</v>
+        <v>1.015160181379892</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006187272359573</v>
+        <v>1.029006101807852</v>
       </c>
       <c r="D6">
-        <v>1.027145593042195</v>
+        <v>1.037573479548989</v>
       </c>
       <c r="E6">
-        <v>1.013403338071269</v>
+        <v>1.032534353277067</v>
       </c>
       <c r="F6">
-        <v>1.032458768158644</v>
+        <v>1.046650956836029</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050535579540153</v>
+        <v>1.035466275918587</v>
       </c>
       <c r="J6">
-        <v>1.024907319611267</v>
+        <v>1.033457365794807</v>
       </c>
       <c r="K6">
-        <v>1.036674021634014</v>
+        <v>1.039993090817534</v>
       </c>
       <c r="L6">
-        <v>1.023084992792078</v>
+        <v>1.03496640739436</v>
       </c>
       <c r="M6">
-        <v>1.041929296358338</v>
+        <v>1.049048478532831</v>
       </c>
       <c r="N6">
-        <v>1.012230749162847</v>
+        <v>1.015168596094442</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004872726194767</v>
+        <v>1.0287187229097</v>
       </c>
       <c r="D7">
-        <v>1.026166528601804</v>
+        <v>1.037356524125181</v>
       </c>
       <c r="E7">
-        <v>1.012238749648642</v>
+        <v>1.032263203122778</v>
       </c>
       <c r="F7">
-        <v>1.031311751186325</v>
+        <v>1.046389817088741</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05017443197951</v>
+        <v>1.03541279897875</v>
       </c>
       <c r="J7">
-        <v>1.024146557759492</v>
+        <v>1.03328344282491</v>
       </c>
       <c r="K7">
-        <v>1.035956180782638</v>
+        <v>1.039836373070416</v>
       </c>
       <c r="L7">
-        <v>1.022188721555115</v>
+        <v>1.034755960828917</v>
       </c>
       <c r="M7">
-        <v>1.041043526430364</v>
+        <v>1.048847104374893</v>
       </c>
       <c r="N7">
-        <v>1.011976048111342</v>
+        <v>1.015110726031732</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9992674741522637</v>
+        <v>1.027518354086529</v>
       </c>
       <c r="D8">
-        <v>1.021992827566016</v>
+        <v>1.036449693526179</v>
       </c>
       <c r="E8">
-        <v>1.007284127315355</v>
+        <v>1.031131378196275</v>
       </c>
       <c r="F8">
-        <v>1.026426048956965</v>
+        <v>1.045298951627158</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048605374318355</v>
+        <v>1.035185906863898</v>
       </c>
       <c r="J8">
-        <v>1.020896946786194</v>
+        <v>1.032556054199371</v>
       </c>
       <c r="K8">
-        <v>1.03288290996141</v>
+        <v>1.039179955095141</v>
       </c>
       <c r="L8">
-        <v>1.018366326264229</v>
+        <v>1.033876570372661</v>
       </c>
       <c r="M8">
-        <v>1.037259575803397</v>
+        <v>1.048004734672517</v>
       </c>
       <c r="N8">
-        <v>1.010887801730731</v>
+        <v>1.014868619728209</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9889416785792021</v>
+        <v>1.025406347948763</v>
       </c>
       <c r="D9">
-        <v>1.014312218678538</v>
+        <v>1.034851875057427</v>
       </c>
       <c r="E9">
-        <v>0.99820242026873</v>
+        <v>1.029142854951191</v>
       </c>
       <c r="F9">
-        <v>1.017449430628426</v>
+        <v>1.04337928996272</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045606776612006</v>
+        <v>1.034773451936769</v>
       </c>
       <c r="J9">
-        <v>1.014891070334066</v>
+        <v>1.031272793854434</v>
       </c>
       <c r="K9">
-        <v>1.027177280765553</v>
+        <v>1.038018202720693</v>
       </c>
       <c r="L9">
-        <v>1.011324729431328</v>
+        <v>1.032327965082111</v>
       </c>
       <c r="M9">
-        <v>1.030265607527993</v>
+        <v>1.04651798197429</v>
       </c>
       <c r="N9">
-        <v>1.008875608847519</v>
+        <v>1.014441198616276</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9817242062667236</v>
+        <v>1.02400056047471</v>
       </c>
       <c r="D10">
-        <v>1.008953101796297</v>
+        <v>1.033786845206175</v>
       </c>
       <c r="E10">
-        <v>0.9918879399175394</v>
+        <v>1.027821224779178</v>
       </c>
       <c r="F10">
-        <v>1.011194729482321</v>
+        <v>1.042101349974221</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043441038531041</v>
+        <v>1.034490027556627</v>
       </c>
       <c r="J10">
-        <v>1.010682169999755</v>
+        <v>1.03041633576696</v>
       </c>
       <c r="K10">
-        <v>1.023162565153348</v>
+        <v>1.037240369802547</v>
       </c>
       <c r="L10">
-        <v>1.006405221237517</v>
+        <v>1.031296301941927</v>
       </c>
       <c r="M10">
-        <v>1.025364759157668</v>
+        <v>1.045525289850987</v>
       </c>
       <c r="N10">
-        <v>1.007465023940936</v>
+        <v>1.014155737530591</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9785121086503159</v>
+        <v>1.023392378468041</v>
       </c>
       <c r="D11">
-        <v>1.006571232416627</v>
+        <v>1.033325738217258</v>
       </c>
       <c r="E11">
-        <v>0.9890862571017205</v>
+        <v>1.027249923556701</v>
       </c>
       <c r="F11">
-        <v>1.008416669457701</v>
+        <v>1.041548443371235</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042461411065481</v>
+        <v>1.034365305774794</v>
       </c>
       <c r="J11">
-        <v>1.008806960316456</v>
+        <v>1.03004526743587</v>
       </c>
       <c r="K11">
-        <v>1.02137027986446</v>
+        <v>1.036902784101023</v>
       </c>
       <c r="L11">
-        <v>1.004216967861002</v>
+        <v>1.030849771118941</v>
       </c>
       <c r="M11">
-        <v>1.023181586279219</v>
+        <v>1.045095099065471</v>
       </c>
       <c r="N11">
-        <v>1.006836492850806</v>
+        <v>1.014032012762718</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9773052295675021</v>
+        <v>1.023166553763919</v>
       </c>
       <c r="D12">
-        <v>1.005676855478351</v>
+        <v>1.03315447280044</v>
       </c>
       <c r="E12">
-        <v>0.9880349221659204</v>
+        <v>1.027037864522406</v>
       </c>
       <c r="F12">
-        <v>1.007373785650746</v>
+        <v>1.04134313844307</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042091034522522</v>
+        <v>1.03431867921962</v>
       </c>
       <c r="J12">
-        <v>1.008102127054245</v>
+        <v>1.029907404659691</v>
       </c>
       <c r="K12">
-        <v>1.02069609810325</v>
+        <v>1.036777273867493</v>
       </c>
       <c r="L12">
-        <v>1.003395001257044</v>
+        <v>1.030683938841192</v>
       </c>
       <c r="M12">
-        <v>1.022361066072444</v>
+        <v>1.044935256046611</v>
       </c>
       <c r="N12">
-        <v>1.006600240736236</v>
+        <v>1.013986038494653</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9775647439630322</v>
+        <v>1.023214990239301</v>
       </c>
       <c r="D13">
-        <v>1.005869146009278</v>
+        <v>1.033191209325215</v>
       </c>
       <c r="E13">
-        <v>0.9882609285675971</v>
+        <v>1.027083345199322</v>
       </c>
       <c r="F13">
-        <v>1.00759799361279</v>
+        <v>1.041387173889596</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042170779215426</v>
+        <v>1.034328694307894</v>
       </c>
       <c r="J13">
-        <v>1.00825369793202</v>
+        <v>1.029936978101101</v>
       </c>
       <c r="K13">
-        <v>1.020841100530221</v>
+        <v>1.036804201463706</v>
       </c>
       <c r="L13">
-        <v>1.003571737191771</v>
+        <v>1.030719509089461</v>
       </c>
       <c r="M13">
-        <v>1.022537511524807</v>
+        <v>1.04496954520316</v>
       </c>
       <c r="N13">
-        <v>1.006651045825346</v>
+        <v>1.013995900911578</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9784126326851496</v>
+        <v>1.023373710065531</v>
       </c>
       <c r="D14">
-        <v>1.0064975022684</v>
+        <v>1.033311581146494</v>
       </c>
       <c r="E14">
-        <v>0.9889995741723652</v>
+        <v>1.027232391669888</v>
       </c>
       <c r="F14">
-        <v>1.008330691599008</v>
+        <v>1.041531471380778</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042430929484357</v>
+        <v>1.034361457711341</v>
       </c>
       <c r="J14">
-        <v>1.008748870090408</v>
+        <v>1.03003387229197</v>
       </c>
       <c r="K14">
-        <v>1.021314726223434</v>
+        <v>1.036892411743101</v>
       </c>
       <c r="L14">
-        <v>1.004149213108785</v>
+        <v>1.030836062769578</v>
       </c>
       <c r="M14">
-        <v>1.023113960016803</v>
+        <v>1.045081887424353</v>
       </c>
       <c r="N14">
-        <v>1.006817021783439</v>
+        <v>1.014028212867722</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9789331991325619</v>
+        <v>1.023471513376713</v>
       </c>
       <c r="D15">
-        <v>1.006883361979696</v>
+        <v>1.033385747602543</v>
       </c>
       <c r="E15">
-        <v>0.9894532484770161</v>
+        <v>1.027324243731227</v>
       </c>
       <c r="F15">
-        <v>1.008780659037965</v>
+        <v>1.041620387045829</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042590348851945</v>
+        <v>1.034381604682548</v>
       </c>
       <c r="J15">
-        <v>1.00905285094011</v>
+        <v>1.030093567860593</v>
       </c>
       <c r="K15">
-        <v>1.021605412408996</v>
+        <v>1.036946745687594</v>
       </c>
       <c r="L15">
-        <v>1.00450378912295</v>
+        <v>1.030907879237059</v>
       </c>
       <c r="M15">
-        <v>1.02346784491168</v>
+        <v>1.045151098456246</v>
       </c>
       <c r="N15">
-        <v>1.006918911846789</v>
+        <v>1.014048119038694</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9819354925761229</v>
+        <v>1.02404093483667</v>
       </c>
       <c r="D16">
-        <v>1.009109850300647</v>
+        <v>1.033817448711328</v>
       </c>
       <c r="E16">
-        <v>0.9920724125146235</v>
+        <v>1.027859160790396</v>
       </c>
       <c r="F16">
-        <v>1.011377588023018</v>
+        <v>1.042138054180452</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043505153701767</v>
+        <v>1.034498262914091</v>
       </c>
       <c r="J16">
-        <v>1.01080547911647</v>
+        <v>1.030440957879737</v>
       </c>
       <c r="K16">
-        <v>1.023280348426233</v>
+        <v>1.037262757941161</v>
       </c>
       <c r="L16">
-        <v>1.006549189052332</v>
+        <v>1.031325940744966</v>
       </c>
       <c r="M16">
-        <v>1.025508327427408</v>
+        <v>1.045553832969188</v>
       </c>
       <c r="N16">
-        <v>1.007506353462824</v>
+        <v>1.014163946277605</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9837950045125683</v>
+        <v>1.024398261386348</v>
       </c>
       <c r="D17">
-        <v>1.010489751464727</v>
+        <v>1.034088260019899</v>
       </c>
       <c r="E17">
-        <v>0.993696918594174</v>
+        <v>1.028194961743581</v>
       </c>
       <c r="F17">
-        <v>1.012987552181296</v>
+        <v>1.042462894677458</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044067637272937</v>
+        <v>1.034570905353076</v>
       </c>
       <c r="J17">
-        <v>1.011890482562106</v>
+        <v>1.030658809267706</v>
       </c>
       <c r="K17">
-        <v>1.024316323624391</v>
+        <v>1.037460776354337</v>
       </c>
       <c r="L17">
-        <v>1.007816373670836</v>
+        <v>1.031588230354374</v>
       </c>
       <c r="M17">
-        <v>1.026771631174698</v>
+        <v>1.045806365333561</v>
       </c>
       <c r="N17">
-        <v>1.007870006886075</v>
+        <v>1.014236570260436</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9848712936886506</v>
+        <v>1.024606735296788</v>
       </c>
       <c r="D18">
-        <v>1.011288736828477</v>
+        <v>1.034246225164134</v>
       </c>
       <c r="E18">
-        <v>0.9946379929788367</v>
+        <v>1.028390922577274</v>
       </c>
       <c r="F18">
-        <v>1.013919925078056</v>
+        <v>1.042652411938753</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044391701694844</v>
+        <v>1.034613083714234</v>
       </c>
       <c r="J18">
-        <v>1.012518285837507</v>
+        <v>1.030785857355491</v>
       </c>
       <c r="K18">
-        <v>1.024915416041746</v>
+        <v>1.037576201913594</v>
       </c>
       <c r="L18">
-        <v>1.008549928015833</v>
+        <v>1.031741237324685</v>
       </c>
       <c r="M18">
-        <v>1.027502631767722</v>
+        <v>1.045953629468757</v>
       </c>
       <c r="N18">
-        <v>1.008080416971206</v>
+        <v>1.014278919167425</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9852368878812786</v>
+        <v>1.024677828195482</v>
       </c>
       <c r="D19">
-        <v>1.011560184136884</v>
+        <v>1.034300088080319</v>
       </c>
       <c r="E19">
-        <v>0.9949577926587325</v>
+        <v>1.028457756026969</v>
       </c>
       <c r="F19">
-        <v>1.014236720080864</v>
+        <v>1.042717039721621</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04450152317146</v>
+        <v>1.034627432730721</v>
       </c>
       <c r="J19">
-        <v>1.012731503104598</v>
+        <v>1.030829173887043</v>
       </c>
       <c r="K19">
-        <v>1.025118823700598</v>
+        <v>1.037615546250918</v>
       </c>
       <c r="L19">
-        <v>1.008799118320777</v>
+        <v>1.031793411743862</v>
       </c>
       <c r="M19">
-        <v>1.027750901816707</v>
+        <v>1.046003836972266</v>
       </c>
       <c r="N19">
-        <v>1.008151876140393</v>
+        <v>1.014293357099333</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9835963633423964</v>
+        <v>1.024359918307165</v>
       </c>
       <c r="D20">
-        <v>1.010342313131598</v>
+        <v>1.034059203950438</v>
       </c>
       <c r="E20">
-        <v>0.9935232976594986</v>
+        <v>1.028158923764726</v>
       </c>
       <c r="F20">
-        <v>1.012815514040033</v>
+        <v>1.04242803787644</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044007705686292</v>
+        <v>1.034563131438115</v>
       </c>
       <c r="J20">
-        <v>1.011774598063093</v>
+        <v>1.030635438034109</v>
       </c>
       <c r="K20">
-        <v>1.024205710967006</v>
+        <v>1.037439538625784</v>
       </c>
       <c r="L20">
-        <v>1.007680996192067</v>
+        <v>1.031560087303676</v>
       </c>
       <c r="M20">
-        <v>1.026636700015201</v>
+        <v>1.04577927447883</v>
       </c>
       <c r="N20">
-        <v>1.007831167305089</v>
+        <v>1.014228779574232</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.97816333645973</v>
+        <v>1.02332696878343</v>
       </c>
       <c r="D21">
-        <v>1.006312736838914</v>
+        <v>1.033276134350025</v>
       </c>
       <c r="E21">
-        <v>0.9887823602816065</v>
+        <v>1.02718849711103</v>
       </c>
       <c r="F21">
-        <v>1.008115237922695</v>
+        <v>1.041488977442847</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042354502900456</v>
+        <v>1.034351817962913</v>
       </c>
       <c r="J21">
-        <v>1.00860328640471</v>
+        <v>1.030005340228461</v>
       </c>
       <c r="K21">
-        <v>1.021175491383955</v>
+        <v>1.036866439203844</v>
       </c>
       <c r="L21">
-        <v>1.003979417051655</v>
+        <v>1.030801739801542</v>
       </c>
       <c r="M21">
-        <v>1.02294447859281</v>
+        <v>1.045048806837419</v>
       </c>
       <c r="N21">
-        <v>1.006768223980719</v>
+        <v>1.014018698278706</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9746673606451454</v>
+        <v>1.022677982584273</v>
       </c>
       <c r="D22">
-        <v>1.003723148264702</v>
+        <v>1.032783847472811</v>
       </c>
       <c r="E22">
-        <v>0.985739551835675</v>
+        <v>1.026579206482379</v>
       </c>
       <c r="F22">
-        <v>1.00509613280842</v>
+        <v>1.040898954058594</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041277350305533</v>
+        <v>1.034217225304126</v>
       </c>
       <c r="J22">
-        <v>1.006561149291819</v>
+        <v>1.029608991123944</v>
       </c>
       <c r="K22">
-        <v>1.019221207927218</v>
+        <v>1.036505439012596</v>
       </c>
       <c r="L22">
-        <v>1.001598905018732</v>
+        <v>1.030325105878035</v>
       </c>
       <c r="M22">
-        <v>1.020567305832752</v>
+        <v>1.044589238398681</v>
       </c>
       <c r="N22">
-        <v>1.006083713813559</v>
+        <v>1.013886511461236</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9765284780726127</v>
+        <v>1.023021977527718</v>
       </c>
       <c r="D23">
-        <v>1.005101400343605</v>
+        <v>1.033044811854517</v>
       </c>
       <c r="E23">
-        <v>0.9873586640277829</v>
+        <v>1.02690212143649</v>
       </c>
       <c r="F23">
-        <v>1.006702850039159</v>
+        <v>1.04121169805157</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041852019106282</v>
+        <v>1.034288739305298</v>
       </c>
       <c r="J23">
-        <v>1.007648426231864</v>
+        <v>1.029819120155879</v>
       </c>
       <c r="K23">
-        <v>1.020261984748049</v>
+        <v>1.036696875154113</v>
       </c>
       <c r="L23">
-        <v>1.002866050620475</v>
+        <v>1.030577762099766</v>
       </c>
       <c r="M23">
-        <v>1.021832918837648</v>
+        <v>1.044832891780415</v>
       </c>
       <c r="N23">
-        <v>1.006448163890549</v>
+        <v>1.013956595580411</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9836861464355819</v>
+        <v>1.024377243735509</v>
       </c>
       <c r="D24">
-        <v>1.010408952331552</v>
+        <v>1.034072333120724</v>
       </c>
       <c r="E24">
-        <v>0.993601769450343</v>
+        <v>1.028175207486395</v>
       </c>
       <c r="F24">
-        <v>1.012893271313995</v>
+        <v>1.042443788030817</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044034798606541</v>
+        <v>1.034566644731272</v>
       </c>
       <c r="J24">
-        <v>1.011826976892444</v>
+        <v>1.030645998553368</v>
       </c>
       <c r="K24">
-        <v>1.024255708030573</v>
+        <v>1.03744913527371</v>
       </c>
       <c r="L24">
-        <v>1.00774218463882</v>
+        <v>1.031572803881755</v>
       </c>
       <c r="M24">
-        <v>1.026697687686739</v>
+        <v>1.045791515774293</v>
       </c>
       <c r="N24">
-        <v>1.0078487224932</v>
+        <v>1.014232299885347</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9916674769326381</v>
+        <v>1.02595196638047</v>
       </c>
       <c r="D25">
-        <v>1.016338411676256</v>
+        <v>1.035264924066986</v>
       </c>
       <c r="E25">
-        <v>1.000594239460401</v>
+        <v>1.02965622806384</v>
       </c>
       <c r="F25">
-        <v>1.019815949561836</v>
+        <v>1.043875252341676</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046410626832741</v>
+        <v>1.034881574883464</v>
       </c>
       <c r="J25">
-        <v>1.01647855490545</v>
+        <v>1.031604719681855</v>
       </c>
       <c r="K25">
-        <v>1.02868828088107</v>
+        <v>1.038319135892192</v>
       </c>
       <c r="L25">
-        <v>1.013183337625358</v>
+        <v>1.032728191487067</v>
       </c>
       <c r="M25">
-        <v>1.032114243836395</v>
+        <v>1.046902617801189</v>
       </c>
       <c r="N25">
-        <v>1.009407564793594</v>
+        <v>1.014551789470691</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027209544566925</v>
+        <v>0.9977951135582352</v>
       </c>
       <c r="D2">
-        <v>1.036216243793162</v>
+        <v>1.02089689789766</v>
       </c>
       <c r="E2">
-        <v>1.030840397174019</v>
+        <v>1.0059856146402</v>
       </c>
       <c r="F2">
-        <v>1.045018289888686</v>
+        <v>1.025144144120231</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035126635783653</v>
+        <v>1.04818590193139</v>
       </c>
       <c r="J2">
-        <v>1.03236868986662</v>
+        <v>1.020041972992474</v>
       </c>
       <c r="K2">
-        <v>1.039010620174424</v>
+        <v>1.03207258432933</v>
       </c>
       <c r="L2">
-        <v>1.0336502439994</v>
+        <v>1.017362185471256</v>
       </c>
       <c r="M2">
-        <v>1.047787708967846</v>
+        <v>1.036263951950366</v>
       </c>
       <c r="N2">
-        <v>1.01480623656739</v>
+        <v>1.010601416845077</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028123558461283</v>
+        <v>1.002116799246255</v>
       </c>
       <c r="D3">
-        <v>1.036907023967284</v>
+        <v>1.024114194430125</v>
       </c>
       <c r="E3">
-        <v>1.031701872351562</v>
+        <v>1.009800473759423</v>
       </c>
       <c r="F3">
-        <v>1.045848965104229</v>
+        <v>1.028908532550314</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035301004861554</v>
+        <v>1.049408680566303</v>
       </c>
       <c r="J3">
-        <v>1.032922973981904</v>
+        <v>1.022549924047459</v>
       </c>
       <c r="K3">
-        <v>1.039511271360815</v>
+        <v>1.034447553704286</v>
       </c>
       <c r="L3">
-        <v>1.034320015724604</v>
+        <v>1.020309472848105</v>
       </c>
       <c r="M3">
-        <v>1.048429689325349</v>
+        <v>1.039184416682741</v>
       </c>
       <c r="N3">
-        <v>1.01499076227881</v>
+        <v>1.011441413244967</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028715397392193</v>
+        <v>1.004857453071299</v>
       </c>
       <c r="D4">
-        <v>1.037354013199708</v>
+        <v>1.026155153683119</v>
       </c>
       <c r="E4">
-        <v>1.032260065816473</v>
+        <v>1.012225224778943</v>
       </c>
       <c r="F4">
-        <v>1.046386795153065</v>
+        <v>1.031298427166418</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035412178216846</v>
+        <v>1.050170220033131</v>
       </c>
       <c r="J4">
-        <v>1.033281429701414</v>
+        <v>1.024137715613143</v>
       </c>
       <c r="K4">
-        <v>1.039834558552646</v>
+        <v>1.035947833654222</v>
       </c>
       <c r="L4">
-        <v>1.034753525362923</v>
+        <v>1.022178307705593</v>
       </c>
       <c r="M4">
-        <v>1.04884477341377</v>
+        <v>1.041033231110608</v>
       </c>
       <c r="N4">
-        <v>1.01511005615366</v>
+        <v>1.011973087621634</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0289643036803</v>
+        <v>1.005996726805931</v>
       </c>
       <c r="D5">
-        <v>1.037541927871446</v>
+        <v>1.02700367230701</v>
       </c>
       <c r="E5">
-        <v>1.032494911152504</v>
+        <v>1.013234466047695</v>
       </c>
       <c r="F5">
-        <v>1.046612975677337</v>
+        <v>1.032292478358814</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035458518486731</v>
+        <v>1.05048340021158</v>
       </c>
       <c r="J5">
-        <v>1.03343207477131</v>
+        <v>1.024797080129404</v>
       </c>
       <c r="K5">
-        <v>1.039970307457184</v>
+        <v>1.036570042610152</v>
       </c>
       <c r="L5">
-        <v>1.034935800915261</v>
+        <v>1.022955082136278</v>
       </c>
       <c r="M5">
-        <v>1.049019196711796</v>
+        <v>1.041800944953418</v>
       </c>
       <c r="N5">
-        <v>1.015160181379892</v>
+        <v>1.012193843020406</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029006101807852</v>
+        <v>1.006187272359573</v>
       </c>
       <c r="D6">
-        <v>1.037573479548989</v>
+        <v>1.027145593042196</v>
       </c>
       <c r="E6">
-        <v>1.032534353277067</v>
+        <v>1.013403338071269</v>
       </c>
       <c r="F6">
-        <v>1.046650956836029</v>
+        <v>1.032458768158644</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035466275918587</v>
+        <v>1.050535579540153</v>
       </c>
       <c r="J6">
-        <v>1.033457365794807</v>
+        <v>1.024907319611267</v>
       </c>
       <c r="K6">
-        <v>1.039993090817534</v>
+        <v>1.036674021634014</v>
       </c>
       <c r="L6">
-        <v>1.03496640739436</v>
+        <v>1.023084992792078</v>
       </c>
       <c r="M6">
-        <v>1.049048478532831</v>
+        <v>1.041929296358338</v>
       </c>
       <c r="N6">
-        <v>1.015168596094442</v>
+        <v>1.012230749162847</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0287187229097</v>
+        <v>1.004872726194767</v>
       </c>
       <c r="D7">
-        <v>1.037356524125181</v>
+        <v>1.026166528601804</v>
       </c>
       <c r="E7">
-        <v>1.032263203122778</v>
+        <v>1.012238749648641</v>
       </c>
       <c r="F7">
-        <v>1.046389817088741</v>
+        <v>1.031311751186325</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03541279897875</v>
+        <v>1.05017443197951</v>
       </c>
       <c r="J7">
-        <v>1.03328344282491</v>
+        <v>1.024146557759492</v>
       </c>
       <c r="K7">
-        <v>1.039836373070416</v>
+        <v>1.035956180782637</v>
       </c>
       <c r="L7">
-        <v>1.034755960828917</v>
+        <v>1.022188721555114</v>
       </c>
       <c r="M7">
-        <v>1.048847104374893</v>
+        <v>1.041043526430364</v>
       </c>
       <c r="N7">
-        <v>1.015110726031732</v>
+        <v>1.011976048111342</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027518354086529</v>
+        <v>0.9992674741522624</v>
       </c>
       <c r="D8">
-        <v>1.036449693526179</v>
+        <v>1.021992827566015</v>
       </c>
       <c r="E8">
-        <v>1.031131378196275</v>
+        <v>1.007284127315354</v>
       </c>
       <c r="F8">
-        <v>1.045298951627158</v>
+        <v>1.026426048956963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035185906863898</v>
+        <v>1.048605374318354</v>
       </c>
       <c r="J8">
-        <v>1.032556054199371</v>
+        <v>1.020896946786193</v>
       </c>
       <c r="K8">
-        <v>1.039179955095141</v>
+        <v>1.032882909961409</v>
       </c>
       <c r="L8">
-        <v>1.033876570372661</v>
+        <v>1.018366326264228</v>
       </c>
       <c r="M8">
-        <v>1.048004734672517</v>
+        <v>1.037259575803396</v>
       </c>
       <c r="N8">
-        <v>1.014868619728209</v>
+        <v>1.01088780173073</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025406347948763</v>
+        <v>0.988941678579202</v>
       </c>
       <c r="D9">
-        <v>1.034851875057427</v>
+        <v>1.014312218678538</v>
       </c>
       <c r="E9">
-        <v>1.029142854951191</v>
+        <v>0.9982024202687299</v>
       </c>
       <c r="F9">
-        <v>1.04337928996272</v>
+        <v>1.017449430628426</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034773451936769</v>
+        <v>1.045606776612006</v>
       </c>
       <c r="J9">
-        <v>1.031272793854434</v>
+        <v>1.014891070334066</v>
       </c>
       <c r="K9">
-        <v>1.038018202720693</v>
+        <v>1.027177280765553</v>
       </c>
       <c r="L9">
-        <v>1.032327965082111</v>
+        <v>1.011324729431328</v>
       </c>
       <c r="M9">
-        <v>1.04651798197429</v>
+        <v>1.030265607527993</v>
       </c>
       <c r="N9">
-        <v>1.014441198616276</v>
+        <v>1.008875608847519</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02400056047471</v>
+        <v>0.9817242062667234</v>
       </c>
       <c r="D10">
-        <v>1.033786845206175</v>
+        <v>1.008953101796297</v>
       </c>
       <c r="E10">
-        <v>1.027821224779178</v>
+        <v>0.991887939917539</v>
       </c>
       <c r="F10">
-        <v>1.042101349974221</v>
+        <v>1.011194729482321</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034490027556627</v>
+        <v>1.04344103853104</v>
       </c>
       <c r="J10">
-        <v>1.03041633576696</v>
+        <v>1.010682169999755</v>
       </c>
       <c r="K10">
-        <v>1.037240369802547</v>
+        <v>1.023162565153348</v>
       </c>
       <c r="L10">
-        <v>1.031296301941927</v>
+        <v>1.006405221237517</v>
       </c>
       <c r="M10">
-        <v>1.045525289850987</v>
+        <v>1.025364759157667</v>
       </c>
       <c r="N10">
-        <v>1.014155737530591</v>
+        <v>1.007465023940936</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023392378468041</v>
+        <v>0.9785121086503162</v>
       </c>
       <c r="D11">
-        <v>1.033325738217258</v>
+        <v>1.006571232416628</v>
       </c>
       <c r="E11">
-        <v>1.027249923556701</v>
+        <v>0.989086257101721</v>
       </c>
       <c r="F11">
-        <v>1.041548443371235</v>
+        <v>1.008416669457701</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034365305774794</v>
+        <v>1.042461411065482</v>
       </c>
       <c r="J11">
-        <v>1.03004526743587</v>
+        <v>1.008806960316456</v>
       </c>
       <c r="K11">
-        <v>1.036902784101023</v>
+        <v>1.021370279864461</v>
       </c>
       <c r="L11">
-        <v>1.030849771118941</v>
+        <v>1.004216967861002</v>
       </c>
       <c r="M11">
-        <v>1.045095099065471</v>
+        <v>1.02318158627922</v>
       </c>
       <c r="N11">
-        <v>1.014032012762718</v>
+        <v>1.006836492850806</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023166553763919</v>
+        <v>0.9773052295675027</v>
       </c>
       <c r="D12">
-        <v>1.03315447280044</v>
+        <v>1.005676855478352</v>
       </c>
       <c r="E12">
-        <v>1.027037864522406</v>
+        <v>0.9880349221659208</v>
       </c>
       <c r="F12">
-        <v>1.04134313844307</v>
+        <v>1.007373785650747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03431867921962</v>
+        <v>1.042091034522523</v>
       </c>
       <c r="J12">
-        <v>1.029907404659691</v>
+        <v>1.008102127054246</v>
       </c>
       <c r="K12">
-        <v>1.036777273867493</v>
+        <v>1.02069609810325</v>
       </c>
       <c r="L12">
-        <v>1.030683938841192</v>
+        <v>1.003395001257044</v>
       </c>
       <c r="M12">
-        <v>1.044935256046611</v>
+        <v>1.022361066072445</v>
       </c>
       <c r="N12">
-        <v>1.013986038494653</v>
+        <v>1.006600240736237</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023214990239301</v>
+        <v>0.9775647439630324</v>
       </c>
       <c r="D13">
-        <v>1.033191209325215</v>
+        <v>1.005869146009278</v>
       </c>
       <c r="E13">
-        <v>1.027083345199322</v>
+        <v>0.9882609285675973</v>
       </c>
       <c r="F13">
-        <v>1.041387173889596</v>
+        <v>1.00759799361279</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034328694307894</v>
+        <v>1.042170779215426</v>
       </c>
       <c r="J13">
-        <v>1.029936978101101</v>
+        <v>1.00825369793202</v>
       </c>
       <c r="K13">
-        <v>1.036804201463706</v>
+        <v>1.020841100530221</v>
       </c>
       <c r="L13">
-        <v>1.030719509089461</v>
+        <v>1.003571737191771</v>
       </c>
       <c r="M13">
-        <v>1.04496954520316</v>
+        <v>1.022537511524807</v>
       </c>
       <c r="N13">
-        <v>1.013995900911578</v>
+        <v>1.006651045825346</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023373710065531</v>
+        <v>0.9784126326851496</v>
       </c>
       <c r="D14">
-        <v>1.033311581146494</v>
+        <v>1.0064975022684</v>
       </c>
       <c r="E14">
-        <v>1.027232391669888</v>
+        <v>0.9889995741723654</v>
       </c>
       <c r="F14">
-        <v>1.041531471380778</v>
+        <v>1.008330691599008</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034361457711341</v>
+        <v>1.042430929484357</v>
       </c>
       <c r="J14">
-        <v>1.03003387229197</v>
+        <v>1.008748870090408</v>
       </c>
       <c r="K14">
-        <v>1.036892411743101</v>
+        <v>1.021314726223434</v>
       </c>
       <c r="L14">
-        <v>1.030836062769578</v>
+        <v>1.004149213108785</v>
       </c>
       <c r="M14">
-        <v>1.045081887424353</v>
+        <v>1.023113960016803</v>
       </c>
       <c r="N14">
-        <v>1.014028212867722</v>
+        <v>1.006817021783439</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023471513376713</v>
+        <v>0.9789331991325613</v>
       </c>
       <c r="D15">
-        <v>1.033385747602543</v>
+        <v>1.006883361979696</v>
       </c>
       <c r="E15">
-        <v>1.027324243731227</v>
+        <v>0.9894532484770153</v>
       </c>
       <c r="F15">
-        <v>1.041620387045829</v>
+        <v>1.008780659037964</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034381604682548</v>
+        <v>1.042590348851945</v>
       </c>
       <c r="J15">
-        <v>1.030093567860593</v>
+        <v>1.009052850940109</v>
       </c>
       <c r="K15">
-        <v>1.036946745687594</v>
+        <v>1.021605412408995</v>
       </c>
       <c r="L15">
-        <v>1.030907879237059</v>
+        <v>1.004503789122949</v>
       </c>
       <c r="M15">
-        <v>1.045151098456246</v>
+        <v>1.023467844911679</v>
       </c>
       <c r="N15">
-        <v>1.014048119038694</v>
+        <v>1.006918911846789</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02404093483667</v>
+        <v>0.9819354925761228</v>
       </c>
       <c r="D16">
-        <v>1.033817448711328</v>
+        <v>1.009109850300647</v>
       </c>
       <c r="E16">
-        <v>1.027859160790396</v>
+        <v>0.9920724125146236</v>
       </c>
       <c r="F16">
-        <v>1.042138054180452</v>
+        <v>1.011377588023018</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034498262914091</v>
+        <v>1.043505153701768</v>
       </c>
       <c r="J16">
-        <v>1.030440957879737</v>
+        <v>1.01080547911647</v>
       </c>
       <c r="K16">
-        <v>1.037262757941161</v>
+        <v>1.023280348426233</v>
       </c>
       <c r="L16">
-        <v>1.031325940744966</v>
+        <v>1.006549189052332</v>
       </c>
       <c r="M16">
-        <v>1.045553832969188</v>
+        <v>1.025508327427408</v>
       </c>
       <c r="N16">
-        <v>1.014163946277605</v>
+        <v>1.007506353462824</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024398261386348</v>
+        <v>0.9837950045125681</v>
       </c>
       <c r="D17">
-        <v>1.034088260019899</v>
+        <v>1.010489751464727</v>
       </c>
       <c r="E17">
-        <v>1.028194961743581</v>
+        <v>0.9936969185941738</v>
       </c>
       <c r="F17">
-        <v>1.042462894677458</v>
+        <v>1.012987552181295</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034570905353076</v>
+        <v>1.044067637272937</v>
       </c>
       <c r="J17">
-        <v>1.030658809267706</v>
+        <v>1.011890482562106</v>
       </c>
       <c r="K17">
-        <v>1.037460776354337</v>
+        <v>1.024316323624391</v>
       </c>
       <c r="L17">
-        <v>1.031588230354374</v>
+        <v>1.007816373670836</v>
       </c>
       <c r="M17">
-        <v>1.045806365333561</v>
+        <v>1.026771631174698</v>
       </c>
       <c r="N17">
-        <v>1.014236570260436</v>
+        <v>1.007870006886075</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024606735296788</v>
+        <v>0.9848712936886499</v>
       </c>
       <c r="D18">
-        <v>1.034246225164134</v>
+        <v>1.011288736828477</v>
       </c>
       <c r="E18">
-        <v>1.028390922577274</v>
+        <v>0.9946379929788361</v>
       </c>
       <c r="F18">
-        <v>1.042652411938753</v>
+        <v>1.013919925078056</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034613083714234</v>
+        <v>1.044391701694844</v>
       </c>
       <c r="J18">
-        <v>1.030785857355491</v>
+        <v>1.012518285837506</v>
       </c>
       <c r="K18">
-        <v>1.037576201913594</v>
+        <v>1.024915416041746</v>
       </c>
       <c r="L18">
-        <v>1.031741237324685</v>
+        <v>1.008549928015832</v>
       </c>
       <c r="M18">
-        <v>1.045953629468757</v>
+        <v>1.027502631767722</v>
       </c>
       <c r="N18">
-        <v>1.014278919167425</v>
+        <v>1.008080416971206</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024677828195482</v>
+        <v>0.9852368878812791</v>
       </c>
       <c r="D19">
-        <v>1.034300088080319</v>
+        <v>1.011560184136884</v>
       </c>
       <c r="E19">
-        <v>1.028457756026969</v>
+        <v>0.9949577926587331</v>
       </c>
       <c r="F19">
-        <v>1.042717039721621</v>
+        <v>1.014236720080864</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034627432730721</v>
+        <v>1.044501523171461</v>
       </c>
       <c r="J19">
-        <v>1.030829173887043</v>
+        <v>1.012731503104598</v>
       </c>
       <c r="K19">
-        <v>1.037615546250918</v>
+        <v>1.025118823700598</v>
       </c>
       <c r="L19">
-        <v>1.031793411743862</v>
+        <v>1.008799118320777</v>
       </c>
       <c r="M19">
-        <v>1.046003836972266</v>
+        <v>1.027750901816707</v>
       </c>
       <c r="N19">
-        <v>1.014293357099333</v>
+        <v>1.008151876140393</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024359918307165</v>
+        <v>0.9835963633423973</v>
       </c>
       <c r="D20">
-        <v>1.034059203950438</v>
+        <v>1.010342313131599</v>
       </c>
       <c r="E20">
-        <v>1.028158923764726</v>
+        <v>0.9935232976594996</v>
       </c>
       <c r="F20">
-        <v>1.04242803787644</v>
+        <v>1.012815514040034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034563131438115</v>
+        <v>1.044007705686293</v>
       </c>
       <c r="J20">
-        <v>1.030635438034109</v>
+        <v>1.011774598063093</v>
       </c>
       <c r="K20">
-        <v>1.037439538625784</v>
+        <v>1.024205710967006</v>
       </c>
       <c r="L20">
-        <v>1.031560087303676</v>
+        <v>1.007680996192067</v>
       </c>
       <c r="M20">
-        <v>1.04577927447883</v>
+        <v>1.026636700015203</v>
       </c>
       <c r="N20">
-        <v>1.014228779574232</v>
+        <v>1.007831167305089</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02332696878343</v>
+        <v>0.9781633364597303</v>
       </c>
       <c r="D21">
-        <v>1.033276134350025</v>
+        <v>1.006312736838914</v>
       </c>
       <c r="E21">
-        <v>1.02718849711103</v>
+        <v>0.9887823602816073</v>
       </c>
       <c r="F21">
-        <v>1.041488977442847</v>
+        <v>1.008115237922695</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034351817962913</v>
+        <v>1.042354502900456</v>
       </c>
       <c r="J21">
-        <v>1.030005340228461</v>
+        <v>1.00860328640471</v>
       </c>
       <c r="K21">
-        <v>1.036866439203844</v>
+        <v>1.021175491383955</v>
       </c>
       <c r="L21">
-        <v>1.030801739801542</v>
+        <v>1.003979417051656</v>
       </c>
       <c r="M21">
-        <v>1.045048806837419</v>
+        <v>1.02294447859281</v>
       </c>
       <c r="N21">
-        <v>1.014018698278706</v>
+        <v>1.006768223980719</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022677982584273</v>
+        <v>0.9746673606451453</v>
       </c>
       <c r="D22">
-        <v>1.032783847472811</v>
+        <v>1.003723148264702</v>
       </c>
       <c r="E22">
-        <v>1.026579206482379</v>
+        <v>0.9857395518356749</v>
       </c>
       <c r="F22">
-        <v>1.040898954058594</v>
+        <v>1.00509613280842</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034217225304126</v>
+        <v>1.041277350305533</v>
       </c>
       <c r="J22">
-        <v>1.029608991123944</v>
+        <v>1.006561149291819</v>
       </c>
       <c r="K22">
-        <v>1.036505439012596</v>
+        <v>1.019221207927217</v>
       </c>
       <c r="L22">
-        <v>1.030325105878035</v>
+        <v>1.001598905018731</v>
       </c>
       <c r="M22">
-        <v>1.044589238398681</v>
+        <v>1.020567305832751</v>
       </c>
       <c r="N22">
-        <v>1.013886511461236</v>
+        <v>1.006083713813559</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023021977527718</v>
+        <v>0.9765284780726137</v>
       </c>
       <c r="D23">
-        <v>1.033044811854517</v>
+        <v>1.005101400343605</v>
       </c>
       <c r="E23">
-        <v>1.02690212143649</v>
+        <v>0.987358664027784</v>
       </c>
       <c r="F23">
-        <v>1.04121169805157</v>
+        <v>1.00670285003916</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034288739305298</v>
+        <v>1.041852019106282</v>
       </c>
       <c r="J23">
-        <v>1.029819120155879</v>
+        <v>1.007648426231865</v>
       </c>
       <c r="K23">
-        <v>1.036696875154113</v>
+        <v>1.02026198474805</v>
       </c>
       <c r="L23">
-        <v>1.030577762099766</v>
+        <v>1.002866050620476</v>
       </c>
       <c r="M23">
-        <v>1.044832891780415</v>
+        <v>1.021832918837649</v>
       </c>
       <c r="N23">
-        <v>1.013956595580411</v>
+        <v>1.00644816389055</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024377243735509</v>
+        <v>0.9836861464355818</v>
       </c>
       <c r="D24">
-        <v>1.034072333120724</v>
+        <v>1.010408952331552</v>
       </c>
       <c r="E24">
-        <v>1.028175207486395</v>
+        <v>0.9936017694503431</v>
       </c>
       <c r="F24">
-        <v>1.042443788030817</v>
+        <v>1.012893271313995</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034566644731272</v>
+        <v>1.044034798606541</v>
       </c>
       <c r="J24">
-        <v>1.030645998553368</v>
+        <v>1.011826976892444</v>
       </c>
       <c r="K24">
-        <v>1.03744913527371</v>
+        <v>1.024255708030573</v>
       </c>
       <c r="L24">
-        <v>1.031572803881755</v>
+        <v>1.00774218463882</v>
       </c>
       <c r="M24">
-        <v>1.045791515774293</v>
+        <v>1.026697687686738</v>
       </c>
       <c r="N24">
-        <v>1.014232299885347</v>
+        <v>1.0078487224932</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02595196638047</v>
+        <v>0.9916674769326371</v>
       </c>
       <c r="D25">
-        <v>1.035264924066986</v>
+        <v>1.016338411676255</v>
       </c>
       <c r="E25">
-        <v>1.02965622806384</v>
+        <v>1.000594239460399</v>
       </c>
       <c r="F25">
-        <v>1.043875252341676</v>
+        <v>1.019815949561835</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034881574883464</v>
+        <v>1.04641062683274</v>
       </c>
       <c r="J25">
-        <v>1.031604719681855</v>
+        <v>1.016478554905449</v>
       </c>
       <c r="K25">
-        <v>1.038319135892192</v>
+        <v>1.02868828088107</v>
       </c>
       <c r="L25">
-        <v>1.032728191487067</v>
+        <v>1.013183337625357</v>
       </c>
       <c r="M25">
-        <v>1.046902617801189</v>
+        <v>1.032114243836394</v>
       </c>
       <c r="N25">
-        <v>1.014551789470691</v>
+        <v>1.009407564793593</v>
       </c>
     </row>
   </sheetData>
